--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MysensorsGW" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="206">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">tor 19 maj 2016 20:34:08 CEST</t>
+    <t xml:space="preserve">tir 31 maj 2016 07:59:46 CEST</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201605180746+6813~44~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema 4.1.0-alpha+201605272346+6836~44~ubuntu16.04.1-product</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -118,10 +118,7 @@
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
-    <t xml:space="preserve">N/M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, </t>
+    <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, </t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
@@ -136,24 +133,21 @@
     <t xml:space="preserve">Unpolarized capacitor</t>
   </si>
   <si>
+    <t xml:space="preserve">C12, C16, C8, C9, C20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarised capacitor</t>
+  </si>
+  <si>
     <t xml:space="preserve">mouser</t>
   </si>
   <si>
-    <t xml:space="preserve">81-GRM39X104K16J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12, C16, C8, C9, C20, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polarised capacitor</t>
-  </si>
-  <si>
     <t xml:space="preserve">581-F381A106MMA</t>
   </si>
   <si>
@@ -328,6 +322,21 @@
     <t xml:space="preserve">Mysensors expansion connector 1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">P3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORCE_BOOTLOADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_obscurities:2_pin_solder_jumper_smd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point</t>
+  </si>
+  <si>
     <t xml:space="preserve">P4, </t>
   </si>
   <si>
@@ -361,6 +370,24 @@
     <t xml:space="preserve">Connector, double row, 02x01</t>
   </si>
   <si>
+    <t xml:space="preserve">P6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTMODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1, R9, R10, </t>
   </si>
   <si>
@@ -553,10 +580,46 @@
     <t xml:space="preserve">MICRO USB SP/F B</t>
   </si>
   <si>
+    <t xml:space="preserve">W1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_1P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement_Points:Measurement_Point_Round-SMD-Pad_Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3v3 cpu</t>
+  </si>
+  <si>
     <t xml:space="preserve">X1, </t>
   </si>
   <si>
-    <t xml:space="preserve">32.768hz</t>
+    <t xml:space="preserve">32768hz</t>
   </si>
   <si>
     <t xml:space="preserve">CRYSTAL</t>
@@ -670,15 +733,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.515306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2397959183673"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6326530612245"/>
@@ -738,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,528 +882,513 @@
       <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="I19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="I20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="I24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>91</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,352 +1396,517 @@
         <v>120</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>131</v>
+      <c r="C31" s="0" t="n">
+        <v>91</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>32</v>
+      <c r="I31" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>133</v>
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>270</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>32</v>
+        <v>146</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>32</v>
+        <v>152</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="I42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="G43" s="0" t="s">
         <v>184</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1701,8 +1914,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Side &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">tir 31 maj 2016 07:59:46 CEST</t>
+    <t xml:space="preserve">tir 07 jun 2016 19:16:10 CEST</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201605272346+6836~44~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema 4.1.0-alpha+201606061201+6885~45~ubuntu16.04.1-product</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">MM027S020R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itead recommended</t>
   </si>
   <si>
     <t xml:space="preserve">D1, </t>
@@ -736,7 +739,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1038,224 +1041,227 @@
       <c r="H13" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="I13" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>47</v>
@@ -1263,203 +1269,203 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>47</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -1468,13 +1474,13 @@
         <v>91</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>47</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -1491,422 +1497,428 @@
         <v>270</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>41</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="207">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">tir 07 jun 2016 19:16:10 CEST</t>
+    <t xml:space="preserve">søn 03 jul 2016 22:33:14 CEST</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201606061201+6885~45~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema 4.1.0-alpha+201606220817+6945~45~ubuntu16.04.1-product</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
+    <t xml:space="preserve">NM</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, </t>
   </si>
   <si>
@@ -206,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">MM027S020R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itead recommended</t>
   </si>
   <si>
     <t xml:space="preserve">D1, </t>
@@ -739,7 +739,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A29:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -885,163 +885,166 @@
       <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="G7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1062,7 +1065,7 @@
         <v>66</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>67</v>
@@ -1085,7 +1088,7 @@
         <v>66</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>67</v>
@@ -1108,7 +1111,7 @@
         <v>66</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>67</v>
@@ -1131,7 +1134,7 @@
         <v>66</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>67</v>
@@ -1154,7 +1157,7 @@
         <v>66</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>67</v>
@@ -1186,7 +1189,7 @@
         <v>82</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>83</v>
@@ -1218,7 +1221,7 @@
         <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>91</v>
@@ -1243,6 +1246,12 @@
       <c r="F21" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="G21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1263,8 +1272,11 @@
       <c r="F22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>47</v>
+      <c r="G22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,8 +1298,11 @@
       <c r="F23" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>47</v>
+      <c r="G23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>67</v>
@@ -1319,7 +1334,7 @@
         <v>111</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>112</v>
@@ -1344,6 +1359,12 @@
       <c r="F25" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="G25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1364,8 +1385,11 @@
       <c r="F26" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>47</v>
+      <c r="G26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>67</v>
@@ -1390,8 +1414,11 @@
       <c r="F27" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>47</v>
+      <c r="G27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>67</v>
@@ -1416,8 +1443,11 @@
       <c r="F28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>47</v>
+      <c r="G28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>67</v>
@@ -1482,9 +1512,6 @@
       <c r="F31" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1551,9 +1578,6 @@
       <c r="H34" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1574,6 +1598,9 @@
       <c r="F35" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="G35" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1601,7 +1628,7 @@
         <v>147</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>148</v>
@@ -1633,7 +1660,7 @@
         <v>153</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>154</v>
@@ -1665,7 +1692,7 @@
         <v>159</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>160</v>
@@ -1690,6 +1717,9 @@
       <c r="F39" s="0" t="s">
         <v>164</v>
       </c>
+      <c r="G39" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1710,6 +1740,9 @@
       <c r="F40" s="0" t="s">
         <v>168</v>
       </c>
+      <c r="G40" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1730,6 +1763,9 @@
       <c r="F41" s="0" t="s">
         <v>172</v>
       </c>
+      <c r="G41" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1757,7 +1793,7 @@
         <v>179</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>180</v>
@@ -1785,9 +1821,6 @@
       <c r="H43" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="0" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1808,6 +1841,9 @@
       <c r="F44" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="G44" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1828,6 +1864,9 @@
       <c r="F45" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="G45" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1848,6 +1887,9 @@
       <c r="F46" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="G46" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1868,6 +1910,9 @@
       <c r="F47" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="G47" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1888,6 +1933,9 @@
       <c r="F48" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="G48" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1912,7 +1960,7 @@
         <v>204</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>205</v>

--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="220">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -223,6 +223,15 @@
     <t xml:space="preserve">LEDs:LED-0603</t>
   </si>
   <si>
+    <t xml:space="preserve">Osram Opto Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB Q39G-N1OO-35-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720-LBQ39GN1P1351</t>
+  </si>
+  <si>
     <t xml:space="preserve">Digikey</t>
   </si>
   <si>
@@ -232,22 +241,52 @@
     <t xml:space="preserve">LED_RED</t>
   </si>
   <si>
+    <t xml:space="preserve">Lumex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SML-LXFP0603SIC-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">696-SMLLXFP0603SICTR</t>
+  </si>
+  <si>
     <t xml:space="preserve">D3, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_GREEN</t>
   </si>
   <si>
+    <t xml:space="preserve">SML-LXFP0603SUGCTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">696-SMLLXFP0603SUGCT</t>
+  </si>
+  <si>
     <t xml:space="preserve">D4, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_YELLOW</t>
   </si>
   <si>
+    <t xml:space="preserve">Lite-On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C193KSKT-5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-LTSTC193KSKT5A</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_ORANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C194KFKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859-LTST-C194KFKT</t>
   </si>
   <si>
     <t xml:space="preserve">D6, </t>
@@ -655,6 +694,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -714,9 +754,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -738,33 +786,33 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A29:A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.3367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.7857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.4132653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8316326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="107.311224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="106.102040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,22 +1112,32 @@
       <c r="E14" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="G14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>65</v>
@@ -1087,22 +1145,31 @@
       <c r="E15" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="I15" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="L15" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>65</v>
@@ -1110,22 +1177,31 @@
       <c r="E16" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="G16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="I16" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="L16" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>65</v>
@@ -1133,22 +1209,31 @@
       <c r="E17" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="G17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>83</v>
+      </c>
       <c r="I17" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="L17" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>65</v>
@@ -1156,95 +1241,104 @@
       <c r="E18" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="G18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>87</v>
+      </c>
       <c r="I18" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="L18" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>32</v>
@@ -1255,22 +1349,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>32</v>
@@ -1281,22 +1375,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>32</v>
@@ -1305,59 +1399,59 @@
         <v>32</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>32</v>
@@ -1368,23 +1462,23 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G26" s="0" t="s">
         <v>32</v>
       </c>
@@ -1392,27 +1486,27 @@
         <v>32</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>32</v>
@@ -1421,27 +1515,27 @@
         <v>32</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>32</v>
@@ -1450,52 +1544,52 @@
         <v>32</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -1504,18 +1598,18 @@
         <v>91</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -1524,79 +1618,79 @@
         <v>270</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>32</v>
@@ -1604,118 +1698,118 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>32</v>
@@ -1723,22 +1817,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>32</v>
@@ -1746,22 +1840,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>32</v>
@@ -1769,77 +1863,77 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>32</v>
@@ -1847,22 +1941,22 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>32</v>
@@ -1870,22 +1964,22 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>32</v>
@@ -1893,22 +1987,22 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>32</v>
@@ -1916,22 +2010,22 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>32</v>
@@ -1939,34 +2033,34 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">søn 03 jul 2016 22:33:14 CEST</t>
+    <t xml:space="preserve">tir 30 aug 2016 20:30:28 CEST</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201606220817+6945~45~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema 4.1.0-alpha+201608060946+7009~46~ubuntu16.04.1-product</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
-    <t xml:space="preserve">NM</t>
+    <t xml:space="preserve">N/M</t>
   </si>
   <si>
     <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, </t>
@@ -223,15 +223,6 @@
     <t xml:space="preserve">LEDs:LED-0603</t>
   </si>
   <si>
-    <t xml:space="preserve">Osram Opto Semiconductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB Q39G-N1OO-35-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720-LBQ39GN1P1351</t>
-  </si>
-  <si>
     <t xml:space="preserve">Digikey</t>
   </si>
   <si>
@@ -241,54 +232,24 @@
     <t xml:space="preserve">LED_RED</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SML-LXFP0603SIC-TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">696-SMLLXFP0603SICTR</t>
-  </si>
-  <si>
     <t xml:space="preserve">D3, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_GREEN</t>
   </si>
   <si>
-    <t xml:space="preserve">SML-LXFP0603SUGCTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">696-SMLLXFP0603SUGCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">D4, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_YELLOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Lite-On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C193KSKT-5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">859-LTSTC193KSKT5A</t>
-  </si>
-  <si>
     <t xml:space="preserve">D5, </t>
   </si>
   <si>
     <t xml:space="preserve">LED_ORANGE</t>
   </si>
   <si>
-    <t xml:space="preserve">LTST-C194KFKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">859-LTST-C194KFKT</t>
-  </si>
-  <si>
     <t xml:space="preserve">D6, </t>
   </si>
   <si>
@@ -367,7 +328,7 @@
     <t xml:space="preserve">P3, </t>
   </si>
   <si>
-    <t xml:space="preserve">FORCE_BOOTLOADER</t>
+    <t xml:space="preserve">SWC3</t>
   </si>
   <si>
     <t xml:space="preserve">TEST</t>
@@ -415,7 +376,7 @@
     <t xml:space="preserve">P6, </t>
   </si>
   <si>
-    <t xml:space="preserve">TESTMODE</t>
+    <t xml:space="preserve">SWC2</t>
   </si>
   <si>
     <t xml:space="preserve">P7, </t>
@@ -424,12 +385,6 @@
     <t xml:space="preserve">SWC1</t>
   </si>
   <si>
-    <t xml:space="preserve">P8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1, R9, R10, </t>
   </si>
   <si>
@@ -460,6 +415,12 @@
     <t xml:space="preserve">39R</t>
   </si>
   <si>
+    <t xml:space="preserve">R11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1, </t>
   </si>
   <si>
@@ -562,7 +523,7 @@
     <t xml:space="preserve">RFM69HW</t>
   </si>
   <si>
-    <t xml:space="preserve">mysensors_radios:RFM69HW_SMD</t>
+    <t xml:space="preserve">mysensors_radios:RFM95HW_SMD</t>
   </si>
   <si>
     <t xml:space="preserve">RFM69HW, 868Mhz +20dBm HopeRF Wireless Transceiver, Vcc=3.3V</t>
@@ -694,7 +655,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -754,17 +714,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -786,33 +738,33 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.6734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="106.102040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.3367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.7857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.4132653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="107.311224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,9 +888,6 @@
       <c r="G7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1112,32 +1061,22 @@
       <c r="E14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="I14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>65</v>
@@ -1145,31 +1084,22 @@
       <c r="E15" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="I15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>65</v>
@@ -1177,31 +1107,22 @@
       <c r="E16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="I16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>65</v>
@@ -1209,31 +1130,22 @@
       <c r="E17" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="I17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>65</v>
@@ -1241,456 +1153,426 @@
       <c r="E18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="I18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="L18" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>32</v>
+      <c r="I22" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>141</v>
+      <c r="C30" s="0" t="n">
+        <v>91</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>32</v>
@@ -1698,118 +1580,118 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>32</v>
@@ -1817,22 +1699,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>32</v>
@@ -1840,22 +1722,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>32</v>
@@ -1863,204 +1745,189 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">tir 30 aug 2016 20:30:28 CEST</t>
+    <t xml:space="preserve">tor 08 sep 2016 22:28:46 CEST</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201608060946+7009~46~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema 4.1.0-alpha+201609050731+7118~50~ubuntu16.04.1-product</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -118,211 +118,211 @@
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
+    <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, C24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitors_SMD:C_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12, C16, C8, C9, C20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarised capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-F381A106MMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18, C19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06035U3R0BAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-06035U3R0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22, C14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VJ0603Y102JXJPW1BCccccc½</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77-VJ0603Y102JXJPBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_SD_Card_SPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_connectors:MM027S020R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Card Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litkconn Technology Co. LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM027S020R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDs:LED-0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_YELLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_ORANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_Schottky_x2_KCom_AAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double diode Schottky (Serie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT54CWFILMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-BAT54CWFILMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, FB2, FB3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">470R EMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistors_SMD:R_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtre EMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM18PG471SN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-BLM18PG471SN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN_01X02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector, single row, 01x02</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/M</t>
   </si>
   <si>
-    <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitors_SMD:C_0603_HandSoldering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12, C16, C8, C9, C20, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polarised capacitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581-F381A106MMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18, C19, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06035U3R0BAT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581-06035U3R0B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22, C14, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VJ0603Y102JXJPW1BCccccc½</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77-VJ0603Y102JXJPBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_SD_Card_SPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_connectors:MM027S020R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD Card Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litkconn Technology Co. LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM027S020R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEDs:LED-0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digikey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_YELLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_ORANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_Schottky_x2_KCom_AAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double diode Schottky (Serie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST Micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT54CWFILMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511-BAT54CWFILMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1, FB2, FB3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">470R EMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistors_SMD:R_0603_HandSoldering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtre EMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM18PG471SN1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81-BLM18PG471SN1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN_01X02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector, single row, 01x02</t>
-  </si>
-  <si>
     <t xml:space="preserve">P2, </t>
   </si>
   <si>
     <t xml:space="preserve">IO Connector</t>
   </si>
   <si>
-    <t xml:space="preserve">MYSX_1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_connectors:MYSX_1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mysensors expansion connector 1.5</t>
+    <t xml:space="preserve">MYSX_2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_connectors:MYSX_2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysensors expansion connector 2.6</t>
   </si>
   <si>
     <t xml:space="preserve">P3, </t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">RFM69HW</t>
   </si>
   <si>
-    <t xml:space="preserve">mysensors_radios:RFM95HW_SMD</t>
+    <t xml:space="preserve">mysensors_radios:RFM69HW_SMD</t>
   </si>
   <si>
     <t xml:space="preserve">RFM69HW, 868Mhz +20dBm HopeRF Wireless Transceiver, Vcc=3.3V</t>
@@ -738,13 +738,13 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0561224489796"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.515306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2397959183673"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6326530612245"/>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,366 +885,363 @@
       <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="I15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="I16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="I17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="I18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,10 +1264,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,10 +1290,10 @@
         <v>105</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1322,7 @@
         <v>111</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>112</v>
@@ -1351,7 +1348,7 @@
         <v>116</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,10 +1371,10 @@
         <v>105</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,10 +1397,10 @@
         <v>105</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1417,7 @@
         <v>123</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>124</v>
@@ -1440,7 +1437,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>124</v>
@@ -1460,13 +1457,13 @@
         <v>123</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>124</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1480,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>124</v>
@@ -1503,7 +1500,7 @@
         <v>123</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>124</v>
@@ -1523,7 +1520,7 @@
         <v>123</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>124</v>
@@ -1575,7 +1572,7 @@
         <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1601,7 @@
         <v>147</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>148</v>
@@ -1636,7 +1633,7 @@
         <v>153</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>154</v>
@@ -1668,7 +1665,7 @@
         <v>159</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>160</v>
@@ -1694,7 +1691,7 @@
         <v>164</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1714,7 @@
         <v>168</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1737,7 @@
         <v>172</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,7 +1766,7 @@
         <v>179</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>180</v>
@@ -1921,7 +1918,7 @@
         <v>204</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>205</v>

--- a/MysensorsGW.xlsx
+++ b/MysensorsGW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MysensorsGW" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">tor 08 sep 2016 22:28:46 CEST</t>
+    <t xml:space="preserve">fre 23 dec 2016 22:37:02 CET</t>
   </si>
   <si>
     <t xml:space="preserve">Tool:</t>
   </si>
   <si>
-    <t xml:space="preserve">Eeschema 4.1.0-alpha+201609050731+7118~50~ubuntu16.04.1-product</t>
+    <t xml:space="preserve">Eeschema no-vcs-found-7406~56~ubuntu16.10.1</t>
   </si>
   <si>
     <t xml:space="preserve">Generator:</t>
@@ -115,9 +115,15 @@
     <t xml:space="preserve">Battery</t>
   </si>
   <si>
+    <t xml:space="preserve">Battery-RESCUE-MysensorsGW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02</t>
   </si>
   <si>
+    <t xml:space="preserve">NM</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11, C2, C3, C4, C6, C13, C15, C1, C5, C21, C17, C10, C7, C24, </t>
   </si>
   <si>
@@ -214,7 +220,7 @@
     <t xml:space="preserve">LED_BLUE</t>
   </si>
   <si>
-    <t xml:space="preserve">LED</t>
+    <t xml:space="preserve">LED-RESCUE-MysensorsGW</t>
   </si>
   <si>
     <t xml:space="preserve">LEDs:LED-0603</t>
@@ -259,7 +265,7 @@
     <t xml:space="preserve">TO_SOT_Packages_SMD:SOT-23</t>
   </si>
   <si>
-    <t xml:space="preserve">Double diode Schottky (Serie)</t>
+    <t xml:space="preserve">Dual schottky diode, common cathode</t>
   </si>
   <si>
     <t xml:space="preserve">ST Micro</t>
@@ -283,9 +289,6 @@
     <t xml:space="preserve">Resistors_SMD:R_0603_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">Filtre EMI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Murata</t>
   </si>
   <si>
@@ -307,13 +310,10 @@
     <t xml:space="preserve">Connector, single row, 01x02</t>
   </si>
   <si>
-    <t xml:space="preserve">N/M</t>
-  </si>
-  <si>
     <t xml:space="preserve">P2, </t>
   </si>
   <si>
-    <t xml:space="preserve">IO Connector</t>
+    <t xml:space="preserve">MYSX 2.6</t>
   </si>
   <si>
     <t xml:space="preserve">MYSX_2.6</t>
@@ -331,270 +331,273 @@
     <t xml:space="preserve">SWC3</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST</t>
+    <t xml:space="preserve">TEST-RESCUE-MysensorsGW</t>
   </si>
   <si>
     <t xml:space="preserve">mysensors_obscurities:2_pin_solder_jumper_smd</t>
   </si>
   <si>
+    <t xml:space="preserve">P4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_connectors:Cortex_M_Debug_Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortex M debug connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M50-3600542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855-M50-3600542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_PWR_DIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN_02X01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector, double row, 02x01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R9, R10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4k7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5, R2, R6, R7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistors_SMD:R_0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_PUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_buttons:SW_SPST_SMD_J-LEAD_4.3MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xingda0577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_INCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSHA204A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SOT-23_SOT-143_TSOT-6:SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSHA204A, Secure Authentication and Validation Device, SOT-23, Vcc=3.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSHA204A-STUCZ-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566-ATSHA204ASTUCZ-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSAMD21J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_QFP:TQFP-64_10x10mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmel ATSAM D21J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSAMD21J18A-AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556-ATSAMD21J18A-AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT24CS32-STUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SOT-23_SOT-143_TSOT-6:SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32Kb (4096x8) Serial EEPROM with Unique Serial Number, SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT24CS32-STUM-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556-AT24CS32-STUM-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_network:W5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiznet W5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM69HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_radios:RFM69HW_SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM69HW, 868Mhz +20dBm HopeRF Wireless Transceiver, Vcc=3.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRF24L01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_radios:NRF24L01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRF24L01+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMS1117-3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMS1117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD_Packages:SOT-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A LDO Voltage Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZLDO1117G33TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">522-ZLDO1117G33TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICRO-B_USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-MICRO-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysensors_connectors:Micro_USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shenzhen Guanduan Electonics Technology co ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICRO USB SP/F B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_1P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement_Points:Measurement_Point_Round-SMD-Pad_Small</t>
+  </si>
+  <si>
     <t xml:space="preserve">point</t>
   </si>
   <si>
-    <t xml:space="preserve">P4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_connectors:Cortex_M_Debug_Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortex M debug connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harwin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50-3600542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">855-M50-3600542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_PWR_DIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN_02X01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector, double row, 02x01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R9, R10, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4k7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5, R2, R6, R7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_PUSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_buttons:SW_SPST_SMD_J-LEAD_4.3MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xingda0577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS-021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_INCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSHA204A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housings_SOT-23_SOT-143_TSOT-6:SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSHA204A, Secure Authentication and Validation Device, SOT-23, Vcc=3.3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSHA204A-STUCZ-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">566-ATSHA204ASTUCZ-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSAMD21J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housings_QFP:TQFP-64_10x10mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atmel ATSAM D21J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSAMD21J18A-AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556-ATSAMD21J18A-AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT24CS32-STUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housings_SOT-23_SOT-143_TSOT-6:SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32Kb (4096x8) Serial EEPROM with Unique Serial Number, SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT24CS32-STUM-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556-AT24CS32-STUM-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">W5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_network:W5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiznet W5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFM69HW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_radios:RFM69HW_SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFM69HW, 868Mhz +20dBm HopeRF Wireless Transceiver, Vcc=3.3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRF24L01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_radios:NRF24L01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRF24L01+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMS1117-3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMS1117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD_Packages:SOT-223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A LDO Voltage Regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZLDO1117G33TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">522-ZLDO1117G33TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U11, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICRO-B_USB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-MICRO-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysensors_connectors:Micro_USB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shenzhen Guanduan Electonics Technology co ltd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICRO USB SP/F B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_1P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measurement_Points:Measurement_Point_Round-SMD-Pad_Small</t>
-  </si>
-  <si>
     <t xml:space="preserve">W2, </t>
   </si>
   <si>
@@ -625,7 +628,7 @@
     <t xml:space="preserve">32768hz</t>
   </si>
   <si>
-    <t xml:space="preserve">CRYSTAL</t>
+    <t xml:space="preserve">CRYSTAL-RESCUE-MysensorsGW</t>
   </si>
   <si>
     <t xml:space="preserve">mysensors_obscurities:XTAL_3.2x1.5mm</t>
@@ -736,18 +739,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.6734693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.969387755102"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.3367346938776"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.7857142857143"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.4132653061225"/>
@@ -804,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,374 +877,374 @@
         <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="I15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1252,7 @@
         <v>96</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>97</v>
@@ -1264,10 +1267,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,7 +1275,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>102</v>
@@ -1286,80 +1286,77 @@
       <c r="E23" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>47</v>
+      <c r="G23" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="I24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="E25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>103</v>
@@ -1367,25 +1364,22 @@
       <c r="E26" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>47</v>
+      <c r="G26" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>103</v>
@@ -1393,59 +1387,56 @@
       <c r="E27" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>47</v>
+      <c r="G27" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -1454,21 +1445,21 @@
         <v>91</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4</v>
@@ -1477,353 +1468,347 @@
         <v>270</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="0" t="s">
         <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>95</v>
+        <v>138</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>146</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>146</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>95</v>
+        <v>146</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>105</v>
+        <v>184</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>189</v>
@@ -1832,18 +1817,21 @@
         <v>190</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>105</v>
+        <v>191</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>189</v>
@@ -1852,18 +1840,21 @@
         <v>190</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>105</v>
+        <v>191</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>189</v>
@@ -1872,18 +1863,21 @@
         <v>190</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>105</v>
+        <v>191</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>189</v>
@@ -1892,48 +1886,74 @@
         <v>190</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>105</v>
+        <v>191</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="D50" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="E50" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="G50" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="I49" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="I50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>206</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Side &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>